--- a/src/_static/xlsx/tab_tipo_mutazione_famiglia_convivenza.xlsx
+++ b/src/_static/xlsx/tab_tipo_mutazione_famiglia_convivenza.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Codice</t>
   </si>
@@ -30,9 +30,6 @@
     <t>Composizione scheda</t>
   </si>
   <si>
-    <t>Motivo specie famiglia convivenza</t>
-  </si>
-  <si>
     <t>Residenza scheda</t>
   </si>
   <si>
@@ -40,6 +37,12 @@
   </si>
   <si>
     <t>Ripristino residenza ante subentro</t>
+  </si>
+  <si>
+    <t>Revisione onomastica stradale e dei numeri civici</t>
+  </si>
+  <si>
+    <t>Dati generali famiglia convivenza</t>
   </si>
 </sst>
 </file>
@@ -81,7 +84,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -132,11 +135,106 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -148,6 +246,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -451,16 +570,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -492,30 +611,38 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+      <c r="A6" s="7">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -550,6 +677,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -663,15 +799,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -679,6 +806,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A838EA3F-6D46-400D-B10E-D3AC744F50C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -694,23 +829,15 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A83983-DAA3-4CE3-9477-78D8A0CBB621}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>

--- a/src/_static/xlsx/tab_tipo_mutazione_famiglia_convivenza.xlsx
+++ b/src/_static/xlsx/tab_tipo_mutazione_famiglia_convivenza.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Codice</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Dati generali famiglia convivenza</t>
+  </si>
+  <si>
+    <t>Rettifica indirizzo post accertamento</t>
   </si>
 </sst>
 </file>
@@ -234,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -267,6 +270,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -570,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -646,6 +655,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -677,15 +694,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -799,6 +807,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -806,14 +823,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A838EA3F-6D46-400D-B10E-D3AC744F50C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -829,17 +838,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EADACEF-51D5-4A38-9CE7-2DDFA85BD7D0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A83983-DAA3-4CE3-9477-78D8A0CBB621}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>